--- a/SampleInputFiles/sample_InProgress_Greenland.xlsx
+++ b/SampleInputFiles/sample_InProgress_Greenland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9491363-3DB3-4B55-BC04-A6483BE94DC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457FBC89-7A07-4A9C-AE08-EE3654C70334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1867" yWindow="0" windowWidth="24973" windowHeight="10153" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="111">
   <si>
     <t>Roadmap - Summary</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>Cape Town (CPT20)</t>
-  </si>
-  <si>
     <t>Workloads</t>
   </si>
   <si>
@@ -383,16 +380,13 @@
     <t>45 Days</t>
   </si>
   <si>
-    <t>Johannesburg (JNB20)</t>
-  </si>
-  <si>
-    <t>Johannesburg (JNB21)</t>
-  </si>
-  <si>
     <t>InProgress</t>
   </si>
   <si>
     <t>Greenland</t>
+  </si>
+  <si>
+    <t>WhiteSpace Ready</t>
   </si>
 </sst>
 </file>
@@ -1331,15 +1325,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -1356,9 +1350,10 @@
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
       <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.5">
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
@@ -1371,19 +1366,20 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="59"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="62"/>
-    </row>
-    <row r="3" spans="1:15" ht="43" x14ac:dyDescent="0.5">
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" ht="43" x14ac:dyDescent="0.5">
       <c r="A3" s="54"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1398,39 +1394,42 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
@@ -1444,14 +1443,14 @@
       <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10">
         <v>41204</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="10">
-        <v>41204</v>
       </c>
       <c r="I4" s="10">
         <v>41204</v>
@@ -1459,29 +1458,32 @@
       <c r="J4" s="10">
         <v>41204</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10">
+        <v>41204</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1519,10 +1521,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="17">
         <v>10000</v>
@@ -1547,7 +1549,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1560,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>31</v>
@@ -2785,15 +2787,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CF6CC-FED6-4037-BDB6-B1421048F8AA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="70" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -2804,30 +2806,30 @@
     </row>
     <row r="2" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="19">
         <v>42370</v>
@@ -2839,7 +2841,7 @@
         <v>42006</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="43">
         <v>3</v>
@@ -2850,7 +2852,7 @@
     </row>
     <row r="4" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="19">
         <v>42370</v>
@@ -2862,7 +2864,7 @@
         <v>42006</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="43">
         <v>3</v>
@@ -2873,7 +2875,7 @@
     </row>
     <row r="5" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="19">
         <v>42370</v>
@@ -2885,7 +2887,7 @@
         <v>42006</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="43">
         <v>3</v>
@@ -2896,7 +2898,7 @@
     </row>
     <row r="6" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="19">
         <v>42370</v>
@@ -2908,7 +2910,7 @@
         <v>42006</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="43">
         <v>3</v>
@@ -2919,7 +2921,7 @@
     </row>
     <row r="7" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="19">
         <v>42370</v>
@@ -2931,7 +2933,7 @@
         <v>42006</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="43">
         <v>3</v>
@@ -2942,7 +2944,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A8" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="19">
         <v>42370</v>
@@ -2954,7 +2956,7 @@
         <v>42006</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="43">
         <v>3</v>
@@ -2965,7 +2967,7 @@
     </row>
     <row r="9" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A9" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>22</v>
@@ -2977,13 +2979,13 @@
         <v>42006</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -3000,13 +3002,13 @@
         <v>42005</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -3023,10 +3025,10 @@
         <v>42005</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="48">
         <v>40544</v>
@@ -3034,7 +3036,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="70" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -3045,30 +3047,30 @@
     </row>
     <row r="13" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="19">
         <v>42370</v>
@@ -3080,7 +3082,7 @@
         <v>42006</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="43">
         <v>3</v>
@@ -3091,7 +3093,7 @@
     </row>
     <row r="15" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19">
         <v>42370</v>
@@ -3103,7 +3105,7 @@
         <v>42006</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="43">
         <v>3</v>
@@ -3114,7 +3116,7 @@
     </row>
     <row r="16" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="19">
         <v>42370</v>
@@ -3126,7 +3128,7 @@
         <v>42006</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="43">
         <v>3</v>
@@ -3137,7 +3139,7 @@
     </row>
     <row r="17" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A17" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="19">
         <v>42370</v>
@@ -3149,7 +3151,7 @@
         <v>42006</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="43">
         <v>3</v>
@@ -3160,7 +3162,7 @@
     </row>
     <row r="18" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="19">
         <v>42370</v>
@@ -3172,7 +3174,7 @@
         <v>42006</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="43">
         <v>3</v>
@@ -3183,7 +3185,7 @@
     </row>
     <row r="19" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A19" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="19">
         <v>42370</v>
@@ -3195,7 +3197,7 @@
         <v>42006</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="43">
         <v>3</v>
@@ -3206,7 +3208,7 @@
     </row>
     <row r="20" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>22</v>
@@ -3218,13 +3220,13 @@
         <v>42006</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -3241,13 +3243,13 @@
         <v>42005</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -3264,10 +3266,10 @@
         <v>42005</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="48">
         <v>40544</v>
@@ -3275,7 +3277,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="70" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
@@ -3286,30 +3288,30 @@
     </row>
     <row r="24" spans="1:7" ht="86" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="C24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="D24" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A25" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="19">
         <v>42370</v>
@@ -3321,7 +3323,7 @@
         <v>42006</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="43">
         <v>3</v>
@@ -3332,7 +3334,7 @@
     </row>
     <row r="26" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A26" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="19">
         <v>42370</v>
@@ -3344,7 +3346,7 @@
         <v>42006</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="43">
         <v>3</v>
@@ -3355,7 +3357,7 @@
     </row>
     <row r="27" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A27" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="19">
         <v>42370</v>
@@ -3367,7 +3369,7 @@
         <v>42006</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="43">
         <v>3</v>
@@ -3378,7 +3380,7 @@
     </row>
     <row r="28" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A28" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="19">
         <v>42370</v>
@@ -3390,7 +3392,7 @@
         <v>42006</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="43">
         <v>3</v>
@@ -3401,7 +3403,7 @@
     </row>
     <row r="29" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A29" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="19">
         <v>42370</v>
@@ -3413,7 +3415,7 @@
         <v>42006</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="43">
         <v>3</v>
@@ -3424,7 +3426,7 @@
     </row>
     <row r="30" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A30" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="19">
         <v>42370</v>
@@ -3436,7 +3438,7 @@
         <v>42006</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="43">
         <v>3</v>
@@ -3447,7 +3449,7 @@
     </row>
     <row r="31" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A31" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -3459,13 +3461,13 @@
         <v>42006</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -3482,13 +3484,13 @@
         <v>42005</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
@@ -3505,10 +3507,10 @@
         <v>42005</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="48">
         <v>40544</v>

--- a/SampleInputFiles/sample_InProgress_Greenland.xlsx
+++ b/SampleInputFiles/sample_InProgress_Greenland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457FBC89-7A07-4A9C-AE08-EE3654C70334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D00A9B-0554-4EA6-B945-D35C87DAB45B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3733" yWindow="0" windowWidth="24973" windowHeight="10153" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816A8A-C50A-46C0-B933-059E5986472F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1590,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="19">
-        <v>42370</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
@@ -1600,7 +1600,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="19">
-        <v>42370</v>
+        <v>43101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
